--- a/SCBAA/2019/Region 13.xlsx
+++ b/SCBAA/2019/Region 13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4EDD9-2431-495A-8131-9D91C0248EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0D3DD-C3CA-4B06-8CE3-11FA299E35DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="975" windowWidth="13590" windowHeight="12495" firstSheet="1" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="1" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bayugan" sheetId="10" r:id="rId1"/>
@@ -20,13 +20,17 @@
     <sheet name="Surigao" sheetId="17" r:id="rId5"/>
     <sheet name="Tandag" sheetId="18" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1397,29 +1401,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Position"/>
-      <sheetName val="Performance"/>
-      <sheetName val="Cash Flows"/>
-      <sheetName val="Equity"/>
-      <sheetName val="SCBAA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1719,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1826,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="66">
-        <f>8310623.51+945395.86+11839824.59</f>
         <v>21095843.960000001</v>
       </c>
     </row>
@@ -1857,7 +1837,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="66">
-        <f>33891862.63+3076636.82+420300+1024440.63+133198.23</f>
         <v>38546438.310000002</v>
       </c>
     </row>
@@ -1869,7 +1848,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="67">
-        <f>42300+1808773.17</f>
         <v>1851073.17</v>
       </c>
     </row>
@@ -1881,7 +1859,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>61493355.440000005</v>
       </c>
     </row>
@@ -1902,7 +1879,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="66">
-        <f>11749655.16</f>
         <v>11749655.16</v>
       </c>
     </row>
@@ -1914,7 +1890,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="67">
-        <f>34635278.46+24574.56</f>
         <v>34659853.020000003</v>
       </c>
     </row>
@@ -1937,7 +1912,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>46554080.620000005</v>
       </c>
     </row>
@@ -1958,7 +1932,6 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="68">
-        <f>977576033</f>
         <v>977576033</v>
       </c>
     </row>
@@ -2043,7 +2016,6 @@
         <v>38</v>
       </c>
       <c r="E29" s="66">
-        <f>557669.99</f>
         <v>557669.99</v>
       </c>
     </row>
@@ -2130,7 +2102,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1086475024.5599999</v>
       </c>
     </row>
@@ -2176,7 +2147,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="66">
-        <f>6663704.82+8665095.25+8642538.57+6441475.3+11900199.63+6088154.3+3266592.16+9461804.78+7376765.74+6863187.4+11744203.9+12883042.93</f>
         <v>99996764.780000001</v>
       </c>
     </row>
@@ -2188,7 +2158,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="66">
-        <f>9617068.85+18648314.85+9657067.58+17506713.06+6488387.81+10022511.16+15081012.09+10767303.12+12632992.78+33745664.98+14968397.11+32341707.48+7879242.07</f>
         <v>199356382.93999997</v>
       </c>
     </row>
@@ -2200,7 +2169,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="66">
-        <f>6859166.73+4082439.09+22018275.86+8820548.55+6042145.81+313043+130400+5435760+568135</f>
         <v>54269914.040000007</v>
       </c>
     </row>
@@ -2263,7 +2231,6 @@
         <v>10</v>
       </c>
       <c r="E50" s="66">
-        <f>2348601.12+3362257.67+2901367.38+2865515.93+4986989.95+2655902.26+2763319.23+2914912.04+3560078.21+3583966.04+5028107.03+5462234.19+438523.08</f>
         <v>42871774.129999995</v>
       </c>
     </row>
@@ -2275,7 +2242,6 @@
         <v>11</v>
       </c>
       <c r="E51" s="66">
-        <f>1547519.32+3765217.34+1205621.2+1263573.76+737385.31+1368526.76+1214469.5+709959.71+2196123.62+1374097.42+11831406.23+1030922.44</f>
         <v>28244822.610000003</v>
       </c>
     </row>
@@ -2287,7 +2253,6 @@
         <v>12</v>
       </c>
       <c r="E52" s="66">
-        <f>119990+1597750+139118+109300+151600+28630+498800</f>
         <v>2645188</v>
       </c>
     </row>
@@ -2392,7 +2357,6 @@
         <v>10</v>
       </c>
       <c r="E62" s="66">
-        <f>401036.63+536182.73+396609.68+452120.36+717478.16+383328.83+338397.54+457914.53+354431.58+467090.42+628820.48+748002.19</f>
         <v>5881413.129999999</v>
       </c>
     </row>
@@ -2404,7 +2368,6 @@
         <v>11</v>
       </c>
       <c r="E63" s="66">
-        <f>28021.46+764177.19+348564.83+393942.95+279244.31+294126.88+289062.88+335823.47+423979.2+440323.33+1207267.26+21816.06</f>
         <v>4826349.8199999994</v>
       </c>
     </row>
@@ -2416,7 +2379,6 @@
         <v>12</v>
       </c>
       <c r="E64" s="66">
-        <f>15500+54800+57900</f>
         <v>128200</v>
       </c>
     </row>
@@ -2437,7 +2399,6 @@
         <v>10</v>
       </c>
       <c r="E66" s="66">
-        <f>1663997.32+2218765.14+2108626.62+1946528.95+3105718.13+1688084.74+1000033.14+2373143.83+1710333.63+1722880.83+2943675.07+3872519.42+691777.1</f>
         <v>27046083.920000002</v>
       </c>
     </row>
@@ -2449,7 +2410,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="66">
-        <f>3031239+5169836.63+485814.21+1052343.84+8935548.55+16877277.76+2913713.85+569498.87+1197350.27+1534933.54+2885442.96+3039037.24+2813343.07</f>
         <v>50505379.790000007</v>
       </c>
     </row>
@@ -2461,7 +2421,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="66">
-        <f>23850+571764+164861+934641.07+24684993.66+24715047.67+25810938.22+683230.28</f>
         <v>77589325.900000006</v>
       </c>
     </row>
@@ -2564,7 +2523,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="66">
-        <f>169544.58+342311.25+659196+45030+49126+3000000+194000+99980+14541912.17+5051</f>
         <v>19106151</v>
       </c>
     </row>
@@ -2576,7 +2534,6 @@
         <v>50</v>
       </c>
       <c r="E79" s="66">
-        <f>8842169.07+2701554.9+4242873.36+11109197.17+1231370.24</f>
         <v>28127164.739999998</v>
       </c>
     </row>
@@ -2597,7 +2554,6 @@
         <v>49</v>
       </c>
       <c r="E81" s="66">
-        <f>1000000+1000000+2000000+1100000-159.6</f>
         <v>5099840.4000000004</v>
       </c>
     </row>
@@ -2609,7 +2565,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="66">
-        <f>29044414.69+39376419+17030220.81+30043924.01+7712864.46+7916281.53+4574457.52+7399695.23+15223663.64</f>
         <v>158321940.88999999</v>
       </c>
     </row>
@@ -2661,7 +2616,6 @@
         <v>49</v>
       </c>
       <c r="E87" s="66">
-        <f>153900+132400+21500+279400+553884+82940+235244.5</f>
         <v>1459268.5</v>
       </c>
     </row>
@@ -2724,7 +2678,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>863964571.58000004</v>
       </c>
     </row>
@@ -2756,7 +2709,6 @@
         <v>12</v>
       </c>
       <c r="E96" s="66">
-        <f>988855+8997183.66+9320376.29+650229.93+2499000+234100+7650491.03+2719241.03</f>
         <v>33059476.940000001</v>
       </c>
       <c r="F96" s="10"/>
@@ -2801,7 +2753,6 @@
         <v>12</v>
       </c>
       <c r="E100" s="66">
-        <f>1014082.65</f>
         <v>1014082.65</v>
       </c>
     </row>
@@ -2874,7 +2825,6 @@
         <v>12</v>
       </c>
       <c r="E108" s="67">
-        <f>12259742.13+15766569.6-334959.79+3058659.22+3386571.81+2825187.15+448967.65+1492833.08+2784292.66</f>
         <v>41687863.50999999</v>
       </c>
     </row>
@@ -2902,7 +2852,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>125329525.87</v>
       </c>
     </row>
@@ -2914,7 +2863,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>989294097.45000005</v>
       </c>
     </row>
@@ -2936,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E50FEDA-E51F-4ADA-8EBE-287218B179DA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,7 +3043,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>26873928.989999998</v>
       </c>
     </row>
@@ -3138,7 +3085,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="55">
-        <f>9544894.25+7542249.62</f>
         <v>17087143.870000001</v>
       </c>
     </row>
@@ -3150,7 +3096,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>45534799.120000005</v>
       </c>
     </row>
@@ -3341,7 +3286,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>735974074.88</v>
       </c>
     </row>
@@ -3918,7 +3862,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>599336979.41999984</v>
       </c>
     </row>
@@ -4085,7 +4028,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="55">
-        <f>37947522.4+1495000+8669771.59</f>
         <v>48112293.989999995</v>
       </c>
     </row>
@@ -4094,7 +4036,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>58879366.309999995</v>
       </c>
     </row>
@@ -4106,7 +4047,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>658216345.72999978</v>
       </c>
     </row>
@@ -4128,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,7 +4227,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>368453199.31999999</v>
       </c>
     </row>
@@ -4341,7 +4280,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f>SUM(E16:E18)</f>
         <v>102863955.75</v>
       </c>
     </row>
@@ -4532,7 +4470,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1935356259.0699999</v>
       </c>
     </row>
@@ -4788,7 +4725,6 @@
         <v>10</v>
       </c>
       <c r="E62" s="69">
-        <f>16012608.41+5922290.4+220922</f>
         <v>22155820.810000002</v>
       </c>
     </row>
@@ -4800,7 +4736,6 @@
         <v>11</v>
       </c>
       <c r="E63" s="69">
-        <f>19821336.17+1188448.69+23955815.6+8148537.96</f>
         <v>53114138.420000009</v>
       </c>
     </row>
@@ -4854,7 +4789,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="51">
-        <f>SUM([1]SCBAA!$P$228,[1]SCBAA!$P$238,[1]SCBAA!$P$259)</f>
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +5015,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="69">
-        <f>13831396.16</f>
         <v>13831396.16</v>
       </c>
     </row>
@@ -5093,7 +5026,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="69">
-        <f>236740.7+55487876.14+40800000</f>
         <v>96524616.840000004</v>
       </c>
     </row>
@@ -5114,7 +5046,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1244759075.0199997</v>
       </c>
     </row>
@@ -5289,7 +5220,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>545153984.73000002</v>
       </c>
     </row>
@@ -5301,7 +5231,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1789913059.7499998</v>
       </c>
     </row>
@@ -6513,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BD2DF-E051-4277-93AB-C7AB36FD6A7D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6661,7 +6590,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="56">
-        <f>10004679.61+35640213.06</f>
         <v>45644892.670000002</v>
       </c>
     </row>
@@ -6673,7 +6601,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>150495642.32999998</v>
       </c>
     </row>
@@ -6716,7 +6643,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="55">
-        <f>2039618.32+37886811.55</f>
         <v>39926429.869999997</v>
       </c>
     </row>
@@ -6728,7 +6654,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>93023639.75999999</v>
       </c>
     </row>
@@ -6919,7 +6844,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>929840301.9799999</v>
       </c>
     </row>
@@ -7496,7 +7420,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>823312686.03000009</v>
       </c>
     </row>
@@ -7671,7 +7594,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -7683,7 +7605,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>823312686.03000009</v>
       </c>
     </row>
@@ -7705,8 +7626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF2697F-5935-4F01-B760-AEFEFA9AC08B}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7864,7 +7785,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>51038767.579999998</v>
       </c>
     </row>
@@ -7918,7 +7838,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>32455812.16</v>
       </c>
     </row>
@@ -8109,7 +8028,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>536355053.34000003</v>
       </c>
     </row>
@@ -8449,7 +8367,6 @@
         <v>10</v>
       </c>
       <c r="E70" s="72">
-        <f>1100392.13+186847.54+183776.66</f>
         <v>1471016.3299999998</v>
       </c>
     </row>
@@ -8687,7 +8604,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>744581534.26999998</v>
       </c>
     </row>
@@ -8862,7 +8778,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>165929579.11000001</v>
       </c>
     </row>
@@ -8874,7 +8789,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>910511113.38</v>
       </c>
     </row>
